--- a/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_test.xlsx
+++ b/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_test.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7923888888888888</v>
+        <v>0.7980222222222221</v>
       </c>
       <c r="C4">
-        <v>0.0102143158339203</v>
+        <v>0.009795284729869236</v>
       </c>
       <c r="D4">
-        <v>0.4085342370097197</v>
+        <v>0.4081574164308164</v>
       </c>
       <c r="E4">
-        <v>0.005454194027570136</v>
+        <v>0.006358072953833949</v>
       </c>
       <c r="F4">
-        <v>0.9266666666666669</v>
+        <v>0.9419999999999998</v>
       </c>
       <c r="G4">
-        <v>0.01600900352800094</v>
+        <v>0.01569175234725606</v>
       </c>
       <c r="H4">
-        <v>0.2631627797408274</v>
+        <v>0.2616498900043159</v>
       </c>
       <c r="I4">
-        <v>0.004628240123534355</v>
+        <v>0.005126473261303888</v>
       </c>
       <c r="J4">
-        <v>0.9581731270384164</v>
+        <v>0.965674452611976</v>
       </c>
       <c r="K4">
-        <v>0.008139776467463666</v>
+        <v>0.008109881151651899</v>
       </c>
       <c r="L4">
-        <v>0.343</v>
+        <v>0.3253333333333334</v>
       </c>
       <c r="M4">
-        <v>0.02119450217819735</v>
+        <v>0.02314432976828906</v>
       </c>
       <c r="N4">
-        <v>0.4597333333333334</v>
+        <v>0.4486666666666667</v>
       </c>
       <c r="O4">
-        <v>0.01496344473287115</v>
+        <v>0.01684346143728443</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7882627118644068</v>
+        <v>0.7922563559322032</v>
       </c>
       <c r="C5">
-        <v>0.01078712041071384</v>
+        <v>0.008924659463284246</v>
       </c>
       <c r="D5">
-        <v>0.4387556197605857</v>
+        <v>0.4387168434764843</v>
       </c>
       <c r="E5">
-        <v>0.008460509607727984</v>
+        <v>0.004976280605771211</v>
       </c>
       <c r="F5">
-        <v>0.901875</v>
+        <v>0.9075</v>
       </c>
       <c r="G5">
-        <v>0.01867537884331183</v>
+        <v>0.01784375007747929</v>
       </c>
       <c r="H5">
-        <v>0.2928156859156594</v>
+        <v>0.2912209918875561</v>
       </c>
       <c r="I5">
-        <v>0.007866616821125327</v>
+        <v>0.005123002749835903</v>
       </c>
       <c r="J5">
-        <v>0.9498285753749965</v>
+        <v>0.9504689494187548</v>
       </c>
       <c r="K5">
-        <v>0.008348382382688868</v>
+        <v>0.008416433196810624</v>
       </c>
       <c r="L5">
-        <v>0.3883050847457626</v>
+        <v>0.3910169491525424</v>
       </c>
       <c r="M5">
-        <v>0.0322224267866224</v>
+        <v>0.02263986676275909</v>
       </c>
       <c r="N5">
-        <v>0.4978666666666667</v>
+        <v>0.5012000000000001</v>
       </c>
       <c r="O5">
-        <v>0.02260646128414859</v>
+        <v>0.01482872308750163</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.868086956521739</v>
+        <v>0.8766956521739131</v>
       </c>
       <c r="C6">
-        <v>0.01173064644581279</v>
+        <v>0.01078876765078818</v>
       </c>
       <c r="D6">
-        <v>0.5515162454728683</v>
+        <v>0.5720697468166508</v>
       </c>
       <c r="E6">
-        <v>0.02096180085615329</v>
+        <v>0.02488730485588497</v>
       </c>
       <c r="F6">
-        <v>0.748</v>
+        <v>0.7959999999999999</v>
       </c>
       <c r="G6">
-        <v>0.0420660800583984</v>
+        <v>0.04476286547484765</v>
       </c>
       <c r="H6">
-        <v>0.4607411199911201</v>
+        <v>0.4666469502719503</v>
       </c>
       <c r="I6">
-        <v>0.02124443422424221</v>
+        <v>0.0233156809335629</v>
       </c>
       <c r="J6">
-        <v>0.9406895895429109</v>
+        <v>0.9525155655008158</v>
       </c>
       <c r="K6">
-        <v>0.009085240288060126</v>
+        <v>0.009682097125490285</v>
       </c>
       <c r="L6">
-        <v>0.7934782608695652</v>
+        <v>0.7899999999999998</v>
       </c>
       <c r="M6">
-        <v>0.01951823762102634</v>
+        <v>0.01942867384365865</v>
       </c>
       <c r="N6">
-        <v>0.7853571428571429</v>
+        <v>0.7910714285714284</v>
       </c>
       <c r="O6">
-        <v>0.01295749241762545</v>
+        <v>0.01333866504218895</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8745217391304345</v>
+        <v>0.8859130434782609</v>
       </c>
       <c r="C7">
-        <v>0.01179506858476298</v>
+        <v>0.01198481505705007</v>
       </c>
       <c r="D7">
-        <v>0.5768314446990918</v>
+        <v>0.5911883581039591</v>
       </c>
       <c r="E7">
-        <v>0.03041354535244756</v>
+        <v>0.03444529744677816</v>
       </c>
       <c r="F7">
-        <v>0.7120000000000001</v>
+        <v>0.7239999999999999</v>
       </c>
       <c r="G7">
-        <v>0.04662195497341037</v>
+        <v>0.05131912734277555</v>
       </c>
       <c r="H7">
-        <v>0.5143905538905539</v>
+        <v>0.5337378454878455</v>
       </c>
       <c r="I7">
-        <v>0.03216782990367595</v>
+        <v>0.03519069714791323</v>
       </c>
       <c r="J7">
-        <v>0.934830690902154</v>
+        <v>0.939191510737459</v>
       </c>
       <c r="K7">
-        <v>0.0098462738695273</v>
+        <v>0.01051471064853693</v>
       </c>
       <c r="L7">
-        <v>0.8413043478260868</v>
+        <v>0.8508695652173914</v>
       </c>
       <c r="M7">
-        <v>0.01642251537454198</v>
+        <v>0.01852545442480014</v>
       </c>
       <c r="N7">
-        <v>0.8182142857142857</v>
+        <v>0.8282142857142856</v>
       </c>
       <c r="O7">
-        <v>0.01298095977800484</v>
+        <v>0.01434002943110668</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8210833333333332</v>
+        <v>0.8226944444444445</v>
       </c>
       <c r="C8">
-        <v>0.01346152977096104</v>
+        <v>0.01371243718257953</v>
       </c>
       <c r="D8">
-        <v>0.3836107414050536</v>
+        <v>0.383653531962065</v>
       </c>
       <c r="E8">
-        <v>0.01294130114246278</v>
+        <v>0.01233547752894382</v>
       </c>
       <c r="F8">
-        <v>0.8375</v>
+        <v>0.8425</v>
       </c>
       <c r="G8">
-        <v>0.03042809093487697</v>
+        <v>0.03280995681827292</v>
       </c>
       <c r="H8">
-        <v>0.2575078372176212</v>
+        <v>0.2560143122703534</v>
       </c>
       <c r="I8">
-        <v>0.01303182941022551</v>
+        <v>0.01124123929498681</v>
       </c>
       <c r="J8">
-        <v>0.9594648160830357</v>
+        <v>0.9617931208697499</v>
       </c>
       <c r="K8">
-        <v>0.007037522745576674</v>
+        <v>0.007213299954064278</v>
       </c>
       <c r="L8">
-        <v>0.5213333333333333</v>
+        <v>0.5235555555555556</v>
       </c>
       <c r="M8">
-        <v>0.04163058028667552</v>
+        <v>0.04063702668905789</v>
       </c>
       <c r="N8">
-        <v>0.5690566037735849</v>
+        <v>0.571698113207547</v>
       </c>
       <c r="O8">
-        <v>0.03176153859459929</v>
+        <v>0.03072280866879518</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8111616161616161</v>
+        <v>0.8106565656565656</v>
       </c>
       <c r="C9">
-        <v>0.01172240042631467</v>
+        <v>0.01407529087079873</v>
       </c>
       <c r="D9">
-        <v>0.4566096960197685</v>
+        <v>0.4424000607039044</v>
       </c>
       <c r="E9">
-        <v>0.01260993994087717</v>
+        <v>0.01380907929844111</v>
       </c>
       <c r="F9">
-        <v>0.8033333333333336</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G9">
-        <v>0.03131330835273571</v>
+        <v>0.03138222183415307</v>
       </c>
       <c r="H9">
-        <v>0.3275638208205673</v>
+        <v>0.3124981287311037</v>
       </c>
       <c r="I9">
-        <v>0.01261405853328218</v>
+        <v>0.01280192947604059</v>
       </c>
       <c r="J9">
-        <v>0.9471479996645366</v>
+        <v>0.9473931525135646</v>
       </c>
       <c r="K9">
-        <v>0.007542185256852574</v>
+        <v>0.008072517579565952</v>
       </c>
       <c r="L9">
-        <v>0.6406818181818182</v>
+        <v>0.6081818181818182</v>
       </c>
       <c r="M9">
-        <v>0.02719906400047178</v>
+        <v>0.03171394221643453</v>
       </c>
       <c r="N9">
-        <v>0.6683018867924528</v>
+        <v>0.6424528301886793</v>
       </c>
       <c r="O9">
-        <v>0.01938543722761232</v>
+        <v>0.0233793013416782</v>
       </c>
     </row>
   </sheetData>
